--- a/data/data_old.xlsx
+++ b/data/data_old.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="144">
   <si>
     <t>Timestamp</t>
   </si>
@@ -480,6 +480,22 @@
   <si>
     <t>Eazzy banking
 Timiza Barclays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instagram and mobile banking </t>
+  </si>
+  <si>
+    <t>mobile banking-1</t>
+  </si>
+  <si>
+    <t>1. M-pesa 2. Jumia 3. Uber 4. Mcoop</t>
+  </si>
+  <si>
+    <t>Mobile banking aps</t>
+  </si>
+  <si>
+    <t>Mobile banking
+Shopping online</t>
   </si>
 </sst>
 </file>
@@ -5602,6 +5618,385 @@
         <v>24</v>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" s="3">
+        <v>43759.71853155093</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E141" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F141" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J141" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3">
+        <v>43759.816405543985</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="F142" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J142" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="K142" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3">
+        <v>43761.61024681713</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F143" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J143" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3">
+        <v>43761.61032630787</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F144" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J144" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3">
+        <v>43761.822606435184</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E145" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="F145" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J145" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3">
+        <v>43761.83915774306</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F146" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J146" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3">
+        <v>43762.75134616898</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C147" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F147" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J147" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3">
+        <v>43762.891612453706</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F148" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J148" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K148" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3">
+        <v>43768.79209307871</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F149" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J149" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="3">
+        <v>43768.79217355324</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F150" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J150" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="K150" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3">
+        <v>43768.792334328704</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F151" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J151" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="K151" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
